--- a/log.xlsx
+++ b/log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hufiedu-my.sharepoint.com/personal/2001215879_hufi_edu_vn/Documents/HUIT(HUFI)/HK5_2023_2024/.NET/assignment/digitalDocumentary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_F25DC773A252ABDACC1048F1F1DB67045ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3DA440B-4837-4C24-A869-FDB62C0F969B}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_F25DC773A252ABDACC1048F1F1DB67045ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA6BFD3D-B102-4653-ABA7-E29C3B3BC3FE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Add</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Folder</t>
+  </si>
+  <si>
+    <t>Find</t>
   </si>
 </sst>
 </file>
@@ -376,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F7"/>
+  <dimension ref="B2:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,7 +390,7 @@
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>1</v>
       </c>
@@ -400,8 +403,11 @@
       <c r="F2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -410,25 +416,27 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>

--- a/log.xlsx
+++ b/log.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hufiedu-my.sharepoint.com/personal/2001215879_hufi_edu_vn/Documents/HUIT(HUFI)/HK5_2023_2024/.NET/assignment/digitalDocumentary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_F25DC773A252ABDACC1048F1F1DB67045ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA6BFD3D-B102-4653-ABA7-E29C3B3BC3FE}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_F25DC773A252ABDACC1048F1F1DB67045ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{480733A4-33FA-4DB8-8BEB-0B4E10B44B5E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Add</t>
   </si>
@@ -55,6 +56,12 @@
   </si>
   <si>
     <t>Find</t>
+  </si>
+  <si>
+    <t>static method delete all documents in folder</t>
+  </si>
+  <si>
+    <t>CASCADE method in DELETE, UPDATE sql server</t>
   </si>
 </sst>
 </file>
@@ -381,7 +388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -445,4 +452,29 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFB5369-6A84-44CE-9BDE-59B655B8FD3B}">
+  <dimension ref="B2:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>